--- a/WorkPlaceSatisfactionSurveyData.xlsx
+++ b/WorkPlaceSatisfactionSurveyData.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hameenamk-my.sharepoint.com/personal/roy22000_student_hamk_fi/Documents/Python/BigDataProject/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_FA9FB9F930B9382DF91B558DF4989A1792980E0E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE26A4E-65E6-42F2-92F7-93BE7E9069A7}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Variables" sheetId="2" r:id="rId5"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Variables" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="UaRrynT3Ke7dC9kW4h6ejKd3En8xt0p9EVELopFLZCM="/>
@@ -141,18 +150,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Categorical variables</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>: gender, family, education, healtCare, holidayCabin, gym, muscleCare</t>
     </r>
@@ -160,18 +169,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Variables using opinion scale</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>: sat_management, sat_colleques, sat_workEnvironment, sat_salary, sat_tasks</t>
     </r>
@@ -179,18 +188,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Numerical variables</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>: age, years_of_service, salary</t>
     </r>
@@ -199,72 +208,90 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -454,25 +481,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="7" width="8.71"/>
-    <col customWidth="1" min="8" max="8" width="15.0"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col min="1" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,3651 +549,3651 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" ht="14.5">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2">
-        <v>3587.0</v>
+        <v>3587</v>
       </c>
       <c r="H2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="14.5">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2">
-        <v>2963.0</v>
+        <v>2963</v>
       </c>
       <c r="H3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" ht="14.5">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2">
-        <v>1989.0</v>
+        <v>1989</v>
       </c>
       <c r="H4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.5">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2">
-        <v>2144.0</v>
+        <v>2144</v>
       </c>
       <c r="H5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.5">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2">
-        <v>2183.0</v>
+        <v>2183</v>
       </c>
       <c r="H6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.5">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2">
-        <v>1910.0</v>
+        <v>1910</v>
       </c>
       <c r="H7" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L7" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.5">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2">
-        <v>2066.0</v>
+        <v>2066</v>
       </c>
       <c r="H8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" ht="14.5">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>2066.0</v>
+        <v>2066</v>
       </c>
       <c r="H9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.5">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2">
-        <v>2768.0</v>
+        <v>2768</v>
       </c>
       <c r="H10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" ht="14.5">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2">
-        <v>2106.0</v>
+        <v>2106</v>
       </c>
       <c r="H11" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.5">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2">
-        <v>2651.0</v>
+        <v>2651</v>
       </c>
       <c r="H12" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" ht="14.5">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2">
-        <v>2846.0</v>
+        <v>2846</v>
       </c>
       <c r="H13" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" ht="14.5">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2">
-        <v>2808.0</v>
+        <v>2808</v>
       </c>
       <c r="H14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" ht="14.5">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2">
-        <v>3587.0</v>
+        <v>3587</v>
       </c>
       <c r="H15" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" ht="14.5">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="G16" s="2">
-        <v>3393.0</v>
+        <v>3393</v>
       </c>
       <c r="H16" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K16" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L16" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" ht="14.5">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="G17" s="2">
-        <v>2691.0</v>
+        <v>2691</v>
       </c>
       <c r="H17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14.5">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="2">
-        <v>5225.0</v>
+        <v>5225</v>
       </c>
       <c r="H18" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I18" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K18" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L18" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" ht="14.5">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G19" s="2">
-        <v>2729.0</v>
+        <v>2729</v>
       </c>
       <c r="H19" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16" ht="14.5">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F20" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2">
-        <v>2925.0</v>
+        <v>2925</v>
       </c>
       <c r="H20" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2">
-        <v>2457.0</v>
+        <v>2457</v>
       </c>
       <c r="H21" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K21" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G22" s="2">
-        <v>2691.0</v>
+        <v>2691</v>
       </c>
       <c r="H22" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K22" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="D23" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G23" s="2">
-        <v>4874.0</v>
+        <v>4874</v>
       </c>
       <c r="H23" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J23" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K23" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L23" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="G24" s="2">
-        <v>3510.0</v>
+        <v>3510</v>
       </c>
       <c r="H24" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I24" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K24" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L24" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G25" s="2">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="H25" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I25" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J25" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K25" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L25" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2">
-        <v>2925.0</v>
+        <v>2925</v>
       </c>
       <c r="H26" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I26" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J26" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K26" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L26" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="2">
-        <v>1521.0</v>
+        <v>1521</v>
       </c>
       <c r="H27" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J27" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2">
-        <v>1989.0</v>
+        <v>1989</v>
       </c>
       <c r="H28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L28" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="D29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2">
-        <v>2223.0</v>
+        <v>2223</v>
       </c>
       <c r="H29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I29" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K29" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L29" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="D30" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="G30" s="2">
-        <v>2808.0</v>
+        <v>2808</v>
       </c>
       <c r="H30" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J30" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="2">
-        <v>1949.0</v>
+        <v>1949</v>
       </c>
       <c r="H31" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I31" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J31" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K31" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L31" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="A32" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>2340.0</v>
+        <v>2340</v>
       </c>
       <c r="H32" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I32" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J32" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K32" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L32" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="D33" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="G33" s="2">
-        <v>2925.0</v>
+        <v>2925</v>
       </c>
       <c r="H33" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I33" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J33" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K33" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L33" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="D34" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2">
-        <v>6278.0</v>
+        <v>6278</v>
       </c>
       <c r="H34" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I34" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J34" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K34" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L34" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1">
       <c r="A35" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="D35" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="G35" s="2">
-        <v>2183.0</v>
+        <v>2183</v>
       </c>
       <c r="H35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G36" s="2">
-        <v>1989.0</v>
+        <v>1989</v>
       </c>
       <c r="H36" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I36" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J36" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K36" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L36" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>1559.0</v>
+        <v>1559</v>
       </c>
       <c r="H37" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I37" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J37" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1">
       <c r="A38" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="D38" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E38" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G38" s="2">
-        <v>2729.0</v>
+        <v>2729</v>
       </c>
       <c r="H38" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I38" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J38" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K38" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L38" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:16" ht="15.75" customHeight="1">
       <c r="A39" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D39" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="2">
-        <v>2027.0</v>
+        <v>2027</v>
       </c>
       <c r="H39" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I39" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J39" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1">
       <c r="A40" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2">
-        <v>2300.0</v>
+        <v>2300</v>
       </c>
       <c r="H40" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I40" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J40" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K40" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L40" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:16" ht="15.75" customHeight="1">
       <c r="A41" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="D41" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G41" s="2">
-        <v>2106.0</v>
+        <v>2106</v>
       </c>
       <c r="H41" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J41" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K41" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1">
       <c r="A42" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="D42" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E42" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F42" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G42" s="2">
-        <v>2846.0</v>
+        <v>2846</v>
       </c>
       <c r="H42" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I42" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J42" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K42" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L42" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="D43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G43" s="2">
-        <v>2534.0</v>
+        <v>2534</v>
       </c>
       <c r="H43" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I43" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J43" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1">
       <c r="A44" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D44" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E44" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F44" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="G44" s="2">
-        <v>2144.0</v>
+        <v>2144</v>
       </c>
       <c r="H44" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I44" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J44" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K44" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L44" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:16" ht="15.75" customHeight="1">
       <c r="A45" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D45" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G45" s="2">
-        <v>2223.0</v>
+        <v>2223</v>
       </c>
       <c r="H45" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I45" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J45" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K45" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1">
       <c r="A46" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="D46" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="G46" s="2">
-        <v>2651.0</v>
+        <v>2651</v>
       </c>
       <c r="H46" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I46" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J46" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K46" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L46" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1">
       <c r="A47" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="D47" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="G47" s="2">
-        <v>1989.0</v>
+        <v>1989</v>
       </c>
       <c r="H47" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I47" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J47" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K47" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L47" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1">
       <c r="A48" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F48" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G48" s="2">
-        <v>1872.0</v>
+        <v>1872</v>
       </c>
       <c r="H48" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I48" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J48" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:16" ht="15.75" customHeight="1">
       <c r="A49" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="D49" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="G49" s="2">
-        <v>2183.0</v>
+        <v>2183</v>
       </c>
       <c r="H49" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I49" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J49" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:16" ht="15.75" customHeight="1">
       <c r="A50" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="D50" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E50" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F50" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G50" s="2">
-        <v>2729.0</v>
+        <v>2729</v>
       </c>
       <c r="H50" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I50" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J50" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K50" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L50" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:16" ht="15.75" customHeight="1">
       <c r="A51" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="D51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F51" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G51" s="2">
-        <v>2340.0</v>
+        <v>2340</v>
       </c>
       <c r="H51" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I51" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J51" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K51" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L51" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" customHeight="1">
       <c r="A52" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="D52" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E52" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F52" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2">
-        <v>2106.0</v>
+        <v>2106</v>
       </c>
       <c r="H52" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I52" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J52" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K52" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L52" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:16" ht="15.75" customHeight="1">
       <c r="A53" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="D53" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="G53" s="2">
-        <v>2261.0</v>
+        <v>2261</v>
       </c>
       <c r="H53" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I53" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J53" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K53" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L53" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:16" ht="15.75" customHeight="1">
       <c r="A54" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="D54" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G54" s="2">
-        <v>1989.0</v>
+        <v>1989</v>
       </c>
       <c r="H54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J54" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15.75" customHeight="1">
       <c r="A55" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="2">
-        <v>1559.0</v>
+        <v>1559</v>
       </c>
       <c r="H55" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I55" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J55" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15.75" customHeight="1">
       <c r="A56" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="D56" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G56" s="2">
-        <v>2417.0</v>
+        <v>2417</v>
       </c>
       <c r="H56" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I56" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J56" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K56" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L56" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:16" ht="15.75" customHeight="1">
       <c r="A57" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="D57" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G57" s="2">
-        <v>1949.0</v>
+        <v>1949</v>
       </c>
       <c r="H57" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I57" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J57" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K57" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L57" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15.75" customHeight="1">
       <c r="A58" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="D58" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E58" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F58" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="G58" s="2">
-        <v>3119.0</v>
+        <v>3119</v>
       </c>
       <c r="H58" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15.75" customHeight="1">
       <c r="A59" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="D59" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E59" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="2">
-        <v>2574.0</v>
+        <v>2574</v>
       </c>
       <c r="H59" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I59" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" customHeight="1">
       <c r="A60" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D60" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F60" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="2">
-        <v>2261.0</v>
+        <v>2261</v>
       </c>
       <c r="H60" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I60" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J60" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K60" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L60" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:16" ht="15.75" customHeight="1">
       <c r="A61" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="D61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2">
-        <v>2144.0</v>
+        <v>2144</v>
       </c>
       <c r="H61" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I61" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J61" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15.75" customHeight="1">
       <c r="A62" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C62" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="D62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="G62" s="2">
-        <v>2183.0</v>
+        <v>2183</v>
       </c>
       <c r="H62" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I62" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15.75" customHeight="1">
       <c r="A63" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D63" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E63" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G63" s="2">
-        <v>1872.0</v>
+        <v>1872</v>
       </c>
       <c r="H63" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I63" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J63" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L63" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="15.75" customHeight="1">
       <c r="A64" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="D64" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E64" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F64" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2">
-        <v>1872.0</v>
+        <v>1872</v>
       </c>
       <c r="H64" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I64" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J64" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K64" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L64" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="15.75" customHeight="1">
       <c r="A65" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="D65" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F65" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="2">
-        <v>1715.0</v>
+        <v>1715</v>
       </c>
       <c r="H65" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I65" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J65" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K65" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L65" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P65" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15.75" customHeight="1">
       <c r="A66" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C66" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D66" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E66" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F66" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G66" s="2">
-        <v>2691.0</v>
+        <v>2691</v>
       </c>
       <c r="H66" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I66" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J66" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K66" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L66" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P66" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="15.75" customHeight="1">
       <c r="A67" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C67" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="D67" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E67" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="G67" s="2">
-        <v>2027.0</v>
+        <v>2027</v>
       </c>
       <c r="H67" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I67" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J67" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K67" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L67" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M67" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" customHeight="1">
       <c r="A68" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="D68" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E68" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F68" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G68" s="2">
-        <v>5069.0</v>
+        <v>5069</v>
       </c>
       <c r="H68" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I68" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J68" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K68" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L68" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M68" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P68" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="15.75" customHeight="1">
       <c r="A69" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="D69" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E69" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F69" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G69" s="2">
-        <v>2417.0</v>
+        <v>2417</v>
       </c>
       <c r="H69" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I69" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J69" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K69" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:16" ht="15.75" customHeight="1">
       <c r="A70" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="D70" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E70" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F70" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="2">
-        <v>3510.0</v>
+        <v>3510</v>
       </c>
       <c r="H70" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I70" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J70" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K70" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:16" ht="15.75" customHeight="1">
       <c r="A71" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C71" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="D71" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E71" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F71" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="G71" s="2">
-        <v>3119.0</v>
+        <v>3119</v>
       </c>
       <c r="H71" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I71" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J71" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K71" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L71" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M71" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P71" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="15.75" customHeight="1">
       <c r="A72" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="D72" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E72" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F72" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="2">
-        <v>2495.0</v>
+        <v>2495</v>
       </c>
       <c r="H72" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I72" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J72" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K72" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L72" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M72" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:16" ht="15.75" customHeight="1">
       <c r="A73" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="D73" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E73" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F73" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="G73" s="2">
-        <v>3470.0</v>
+        <v>3470</v>
       </c>
       <c r="H73" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I73" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J73" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K73" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L73" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M73" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:16" ht="15.75" customHeight="1">
       <c r="A74" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C74" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D74" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E74" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F74" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G74" s="2">
-        <v>2027.0</v>
+        <v>2027</v>
       </c>
       <c r="H74" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I74" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J74" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K74" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L74" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="15.75" customHeight="1">
       <c r="A75" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C75" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="D75" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E75" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G75" s="2">
-        <v>2846.0</v>
+        <v>2846</v>
       </c>
       <c r="H75" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I75" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J75" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="15.75" customHeight="1">
       <c r="A76" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="2">
-        <v>1949.0</v>
+        <v>1949</v>
       </c>
       <c r="H76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="15.75" customHeight="1">
       <c r="A77" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="D77" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F77" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G77" s="2">
-        <v>1598.0</v>
+        <v>1598</v>
       </c>
       <c r="H77" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J77" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="15.75" customHeight="1">
       <c r="A78" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="D78" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F78" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="G78" s="2">
-        <v>2183.0</v>
+        <v>2183</v>
       </c>
       <c r="H78" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I78" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J78" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K78" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:16" ht="15.75" customHeight="1">
       <c r="A79" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="D79" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F79" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G79" s="2">
-        <v>1598.0</v>
+        <v>1598</v>
       </c>
       <c r="H79" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I79" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J79" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K79" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L79" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M79" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N79" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:16" ht="15.75" customHeight="1">
       <c r="A80" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="D80" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G80" s="2">
-        <v>1638.0</v>
+        <v>1638</v>
       </c>
       <c r="H80" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J80" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K80" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="15.75" customHeight="1">
       <c r="A81" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="D81" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F81" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G81" s="2">
-        <v>2612.0</v>
+        <v>2612</v>
       </c>
       <c r="H81" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I81" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J81" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K81" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L81" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="15.75" customHeight="1">
       <c r="A82" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D82" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E82" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F82" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="G82" s="2">
-        <v>2808.0</v>
+        <v>2808</v>
       </c>
       <c r="H82" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I82" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J82" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K82" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L82" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:16" ht="15.75" customHeight="1">
       <c r="A83" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D83" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E83" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F83" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G83" s="2">
-        <v>2183.0</v>
+        <v>2183</v>
       </c>
       <c r="H83" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I83" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J83" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K83" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L83" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="85" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="86" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="87" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="88" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="89" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="90" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="91" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="92" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:16" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -5072,29 +5099,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="73.71"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="76.453125" customWidth="1"/>
+    <col min="3" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="19.5">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -5107,7 +5132,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5118,7 +5143,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="14.5">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5131,7 +5156,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="14.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -5146,7 +5171,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="14.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -5161,7 +5186,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="14.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -5176,7 +5201,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="14.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -5191,7 +5216,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -5206,7 +5231,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -5219,7 +5244,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -5234,7 +5259,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>26</v>
@@ -5249,7 +5274,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>28</v>
@@ -5264,7 +5289,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>30</v>
@@ -5277,7 +5302,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>31</v>
@@ -5290,7 +5315,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>32</v>
@@ -5303,7 +5328,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>33</v>
@@ -5316,7 +5341,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="14.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>34</v>
@@ -5331,7 +5356,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="14.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>12</v>
@@ -5346,7 +5371,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="14.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>37</v>
@@ -5361,7 +5386,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="14.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>14</v>
@@ -5376,7 +5401,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5387,7 +5412,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -5400,7 +5425,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -5413,7 +5438,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -5426,7 +5451,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5437,13 +5462,13 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -6416,9 +6441,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/WorkPlaceSatisfactionSurveyData.xlsx
+++ b/WorkPlaceSatisfactionSurveyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hameenamk-my.sharepoint.com/personal/roy22000_student_hamk_fi/Documents/Python/BigDataProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_FA9FB9F930B9382DF91B558DF4989A1792980E0E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE26A4E-65E6-42F2-92F7-93BE7E9069A7}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_FA9FB9F930B9382DF91B558DF4989A1792980E0E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{740DAD03-9238-45A2-8852-FC62809C3F75}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -290,6 +290,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -490,13 +494,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="26" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="21.7265625" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" customWidth="1"/>
+    <col min="10" max="10" width="26.453125" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.5">
@@ -5108,7 +5116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
